--- a/data/income_statement/2digits/size/53_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/53_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>53-Postal and courier activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>53-Postal and courier activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>238859.94241</v>
@@ -962,31 +868,36 @@
         <v>392864.85752</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>330192.87379</v>
+        <v>354741.59935</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>476154.75488</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>479751.91535</v>
+        <v>512481.71016</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>616505.01907</v>
+        <v>632617.30198</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>838224.55798</v>
+        <v>829641.80995</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>682449.3392899999</v>
+        <v>796422.85124</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>740631.56874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>788327.13069</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1125977.883</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>218190.23503</v>
@@ -1001,31 +912,36 @@
         <v>358699.20212</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>289078.05457</v>
+        <v>303068.78369</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>397178.38943</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>373699.43791</v>
+        <v>406194.58132</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>453685.03458</v>
+        <v>469770.00158</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>542398.18537</v>
+        <v>533815.4373399999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>519479.01076</v>
+        <v>633406.5498200001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>688259.56799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>664845.22374</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1046716.024</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>15267.55134</v>
@@ -1040,7 +956,7 @@
         <v>24647.89374</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>30961.6852</v>
+        <v>41469.50578</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>68108.82236000001</v>
@@ -1058,13 +974,18 @@
         <v>156183.16512</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>47088.08966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>117606.80157</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>68024.046</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>5402.15604</v>
@@ -1079,31 +1000,36 @@
         <v>9517.76166</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>10153.13402</v>
+        <v>10203.30988</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>10867.54309</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3754.29914</v>
+        <v>3988.95054</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9559.718050000001</v>
+        <v>9587.033960000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>25935.03301</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>6787.16341</v>
+        <v>6833.1363</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>5283.91109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>5875.10538</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>11237.813</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2454.82525</v>
@@ -1118,31 +1044,36 @@
         <v>2810.63411</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1218.57721</v>
+        <v>1325.45322</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>2630.39267</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3332.51654</v>
+        <v>3549.95053</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>3912.01948</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6503.48808</v>
+        <v>6461.58261</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>8647.004489999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7352.16207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7788.469139999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>14744.456</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>920.64287</v>
@@ -1157,31 +1088,36 @@
         <v>1347.82816</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>701.3538299999999</v>
+        <v>808.22984</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>1381.45929</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2358.81172</v>
+        <v>2569.83932</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>2595.43105</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4890.63193</v>
+        <v>4890.29246</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>7457.71392</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5830.11807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6266.425139999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>12469.279</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1273.82896</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1440.18864</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1902.05</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>260.35342</v>
@@ -1241,13 +1182,13 @@
         <v>118.99744</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>0.26596</v>
+        <v>6.672350000000001</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>9.651110000000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>58.05672</v>
+        <v>16.49072</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>73.27741</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>81.85536</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>373.127</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>236405.11716</v>
@@ -1274,31 +1220,36 @@
         <v>390054.22341</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>328974.29658</v>
+        <v>353416.14613</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>473524.36221</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>476419.39881</v>
+        <v>508931.75963</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>612592.99959</v>
+        <v>628705.2825</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>831721.0699</v>
+        <v>823180.22734</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>673802.3348</v>
+        <v>787775.84675</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>733279.4066699999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>780538.66155</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1111233.427</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>208612.98477</v>
@@ -1313,31 +1264,36 @@
         <v>329301.36672</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>267867.81342</v>
+        <v>289295.22592</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>397812.11332</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>412288.557</v>
+        <v>432441.34258</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>530341.5635</v>
+        <v>523168.05269</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>722334.9841799999</v>
+        <v>719590.15665</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>592285.74196</v>
+        <v>595116.2679</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>659633.73801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>682849.4322799999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>938374.9620000001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>826.2742099999999</v>
@@ -1361,10 +1317,10 @@
         <v>22347.747</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4734.67483</v>
+        <v>4697.45777</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3362.72397</v>
+        <v>3220.34713</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>5183.07839</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>115.19</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>648.56282</v>
@@ -1397,25 +1358,30 @@
         <v>2173.81567</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1068.5966</v>
+        <v>1667.25477</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>35845.65843</v>
+        <v>28709.36468</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>30970.75554</v>
+        <v>30216.21273</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>12746.61641</v>
+        <v>15577.14235</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>25591.28999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2459.07779</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>62474.708</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>207109.65292</v>
@@ -1430,31 +1396,36 @@
         <v>310730.8893</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>265760.36603</v>
+        <v>287187.77853</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>393951.38061</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>388184.2932200001</v>
+        <v>407738.42063</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>489732.20228</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>687526.8866699999</v>
+        <v>685678.97879</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>573600.34458</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>634017.94802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>680365.8544900001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>874972.6949999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>28.49482</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>812.369</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>27792.13239</v>
@@ -1508,31 +1484,36 @@
         <v>60752.85669</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>61106.48316</v>
+        <v>64120.92021</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>75712.24889</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>64130.84181000001</v>
+        <v>76490.41705</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>82251.43609</v>
+        <v>105537.22981</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>109386.08572</v>
+        <v>103590.07069</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>81516.59284</v>
+        <v>192659.57885</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>73645.66866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>97689.22927</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>172858.465</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>30587.21351</v>
@@ -1547,31 +1528,36 @@
         <v>49478.31889</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>43896.19298</v>
+        <v>45413.59065999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>61362.17177</v>
+        <v>60852.17656</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>49620.9737</v>
+        <v>52664.30749</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>73138.19581</v>
+        <v>92201.72698000001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>87918.0578</v>
+        <v>81617.73376</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>52554.71858</v>
+        <v>79153.68909999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>93819.0974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>99352.05369</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>101034.923</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>49.23179</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>15.653</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>10604.91859</v>
@@ -1631,25 +1622,30 @@
         <v>15815.47101</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>15095.9286</v>
+        <v>16536.53547</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>22152.75092</v>
+        <v>36504.92828</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>35246.65079</v>
+        <v>34551.53382</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>9156.2554</v>
+        <v>26557.40198</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>26787.77581</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>28894.54209</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>33406.556</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>19933.06313</v>
@@ -1664,31 +1660,36 @@
         <v>33648.93175</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>30810.84588</v>
+        <v>32328.24356</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>45546.70076</v>
+        <v>45036.70555</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>34525.0451</v>
+        <v>36127.77202</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>50985.44489</v>
+        <v>55696.7987</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>52671.40701</v>
+        <v>47066.19994</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>43398.46318</v>
+        <v>52596.28712</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>67031.32159000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>70457.5116</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>67612.71400000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-2795.08112</v>
@@ -1703,31 +1704,36 @@
         <v>11274.5378</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>17210.29018</v>
+        <v>18707.32955</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>14350.07712</v>
+        <v>14860.07233</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>14509.86811</v>
+        <v>23826.10956</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>9113.24028</v>
+        <v>13335.50283</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>21468.02792</v>
+        <v>21972.33693</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>28961.87426</v>
+        <v>113505.88975</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-20173.42874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-1662.82442</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>71823.542</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>4523.80853</v>
@@ -1742,31 +1748,36 @@
         <v>5138.03321</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7737.04551</v>
+        <v>10211.61276</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>10451.78897</v>
+        <v>9732.932119999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>14824.96744</v>
+        <v>20727.19096</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>28418.1954</v>
+        <v>71320.88372</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>193212.34063</v>
+        <v>192335.93568</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>22882.14386</v>
+        <v>89850.43983</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>59656.46507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>61863.56893</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>39946.206</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.17523</v>
@@ -1793,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>326.50769</v>
@@ -1859,31 +1880,36 @@
         <v>1284.54846</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>914.92184</v>
+        <v>926.6984699999999</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>1584.86078</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1181.34362</v>
+        <v>2601.21033</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1666.07339</v>
+        <v>4344.90761</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4146.62654</v>
+        <v>4007.1001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3221.54141</v>
+        <v>9760.11975</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>5290.98946</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>5863.52494</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>7053.788</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1.08984</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>78.548</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>215.84926</v>
@@ -1955,13 +1986,18 @@
         <v>140.21148</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>53.94982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>226.41327</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>49.019</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>500.31312</v>
@@ -1994,13 +2030,18 @@
         <v>1612.96539</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1580.07261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1678.31279</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5474.271</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1955.11898</v>
@@ -2015,31 +2056,36 @@
         <v>1898.16141</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5139.163570000001</v>
+        <v>7601.95419</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7244.49471</v>
+        <v>6525.637860000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>9852.07734</v>
+        <v>14315.77061</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>21423.1904</v>
+        <v>61647.0445</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>180961.65386</v>
+        <v>180566.72684</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11281.62085</v>
+        <v>71711.33848000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>40179.00714</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>40579.08327</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>17181.625</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2060,7 +2106,7 @@
         <v>5.55168</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>66.90025999999999</v>
+        <v>68.56379</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>61.71916</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>21.59168</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1525.84425</v>
@@ -2138,25 +2194,30 @@
         <v>1496.82066</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3259.12994</v>
+        <v>3276.12995</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>4767.69922</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5880.02467</v>
+        <v>5641.073179999999</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>6621.932839999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>12529.76452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>13493.55314</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>10108.955</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>2697.58715</v>
@@ -2171,31 +2232,36 @@
         <v>4508.09205</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4898.4799</v>
+        <v>8482.220130000002</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9344.658750000001</v>
+        <v>8442.582560000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>13771.8679</v>
+        <v>15422.79697</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26905.12411</v>
+        <v>51257.48654999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>182244.82214</v>
+        <v>181528.38188</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13239.48299</v>
+        <v>35664.4323</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>38129.61386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>39547.07668999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>18818.524</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.33531</v>
@@ -2228,13 +2294,18 @@
         <v>43.56839</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>31.71454</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>43.72622</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>61.087</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>384.14488</v>
@@ -2249,31 +2320,36 @@
         <v>1403.67907</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>256.34019</v>
+        <v>414.68333</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>454.66925</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>294.3217</v>
+        <v>619.0636999999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>563.0416899999999</v>
+        <v>797.2470500000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>668.87828</v>
+        <v>662.12242</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>642.7140899999999</v>
+        <v>1108.69509</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>762.43047</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1142.47746</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>925.067</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2013.46754</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4623.628</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1873.77113</v>
@@ -2327,31 +2408,36 @@
         <v>2553.00604</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3847.47468</v>
+        <v>7272.87177</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7875.98303</v>
+        <v>6973.90684</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>11909.41718</v>
+        <v>13235.37762</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>20723.54265</v>
+        <v>44841.69973</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>180503.3797</v>
+        <v>179894.48543</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>9804.904269999999</v>
+        <v>31742.2809</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>32622.15355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>33591.60444</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>10458.162</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2381,16 +2467,21 @@
         <v>5.50583</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>0</v>
+        <v>21.59168</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>439.33583</v>
@@ -2450,25 +2546,30 @@
         <v>1010.98105</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1109.65097</v>
+        <v>1109.8776</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>5132.06036</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>737.08299</v>
+        <v>636.29286</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>1139.83233</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2699.84776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2755.80103</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2750.58</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1415.97906</v>
@@ -2483,31 +2584,36 @@
         <v>2244.49636</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2756.20196</v>
+        <v>2763.16171</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3563.45582</v>
+        <v>3516.80943</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4205.20083</v>
+        <v>4361.23031</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5715.8522</v>
+        <v>5833.916190000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8348.43174</v>
+        <v>8259.93303</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>9544.07056</v>
+        <v>9776.93053</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8367.395919999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>8509.42585</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5376.572</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>957.01077</v>
@@ -2522,31 +2628,36 @@
         <v>2214.9535</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2756.20196</v>
+        <v>2763.16171</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3389.71112</v>
+        <v>3343.06473</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4205.20083</v>
+        <v>4361.23031</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5117.866849999999</v>
+        <v>5235.93084</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>8348.43174</v>
+        <v>8259.93303</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9544.07056</v>
+        <v>9776.93053</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8338.140219999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8480.17015</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5342.471</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>458.96829</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>29.2557</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>34.101</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-2384.8388</v>
@@ -2600,31 +2716,36 @@
         <v>9659.982599999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>17292.65383</v>
+        <v>17673.56047</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>11893.75152</v>
+        <v>12633.61246</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>11357.76682</v>
+        <v>24769.27324</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4910.45937</v>
+        <v>27564.98381</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>24087.11467</v>
+        <v>24519.9577</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>29060.46457</v>
+        <v>157914.96675</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-7013.97345</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>12144.24197</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>87574.652</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1543.22949</v>
@@ -2639,31 +2760,36 @@
         <v>1738.79149</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6315.874</v>
+        <v>6332.313190000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3576.00752</v>
+        <v>3576.00685</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2685.3673</v>
+        <v>3043.73076</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5340.41475</v>
+        <v>3609.40656</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2532.74053</v>
+        <v>2467.30401</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>5659.66942</v>
+        <v>5760.17003</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6626.79408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7245.0918</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>12336.889</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>180.04734</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>31.283</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1363.18215</v>
@@ -2717,31 +2848,36 @@
         <v>1706.58757</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6293.03791</v>
+        <v>6309.4771</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3546.76652</v>
+        <v>3546.76585</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2661.31456</v>
+        <v>3019.67802</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5244.31679</v>
+        <v>3513.3086</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2348.83815</v>
+        <v>2283.40163</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>5650.50606</v>
+        <v>5751.00667</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6626.79408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7245.0918</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>12305.606</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1038.46435</v>
@@ -2756,31 +2892,36 @@
         <v>4439.644969999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5706.89619</v>
+        <v>5787.40592</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2867.66127</v>
+        <v>2867.66043</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7573.43672</v>
+        <v>7608.42588</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3797.74935</v>
+        <v>3769.05203</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3932.1884</v>
+        <v>3866.3377</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>7629.30127</v>
+        <v>7675.772730000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3753.22343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>4187.49988</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>6952.968</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>59.6362</v>
@@ -2834,19 +2980,19 @@
         <v>163.99776</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>45.41735</v>
+        <v>49.08154</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>40.32093</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>215.31967</v>
+        <v>215.25967</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>217.31343</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>231.87719</v>
+        <v>218.85699</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>262.61685</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>336.25617</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>150.838</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>978.8281500000001</v>
@@ -2873,31 +3024,36 @@
         <v>4275.64721</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5661.47884</v>
+        <v>5738.32438</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2827.34034</v>
+        <v>2827.3395</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7358.11705</v>
+        <v>7393.16621</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3270.98925</v>
+        <v>3242.29193</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3700.31121</v>
+        <v>3647.48071</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7366.68442</v>
+        <v>7413.15588</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3416.96726</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3851.24371</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6742.13</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-1880.07366</v>
@@ -2912,31 +3068,36 @@
         <v>6959.129120000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>17901.63164</v>
+        <v>18218.46774</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>12602.09777</v>
+        <v>13341.95888</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>6469.6974</v>
+        <v>20204.57812</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6453.124769999999</v>
+        <v>27405.33834</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>22687.6668</v>
+        <v>23120.92401</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>27090.83272</v>
+        <v>155999.36405</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-4140.4028</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>15201.83389</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>92958.573</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>898.03227</v>
@@ -2957,25 +3118,30 @@
         <v>4008.91481</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3360.32929</v>
+        <v>5924.96518</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4755.97995</v>
+        <v>9122.03541</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>7557.82141</v>
+        <v>7520.5235</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10466.28967</v>
+        <v>38938.9061</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>8011.68147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>12379.266</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>21333.126</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-2778.10593</v>
@@ -2990,28 +3156,31 @@
         <v>5125.48059</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>13481.26974</v>
+        <v>13798.10584</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>8593.18296</v>
+        <v>9333.04407</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3109.36811</v>
+        <v>14279.61294</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1697.14482</v>
+        <v>18283.30293</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>15129.84539</v>
+        <v>15600.40051</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>16624.54305</v>
+        <v>117060.45795</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-12152.08427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2822.56789</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>71625.447</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>19</v>
@@ -3047,25 +3219,28 @@
         <v>19</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J59" s="35" t="n">
+        <v>35</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>45</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>37</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>36</v>
       </c>
-      <c r="K59" s="35" t="n">
-        <v>49</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>36</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>